--- a/src/downloads/ocorrencias_filtradas.xlsx
+++ b/src/downloads/ocorrencias_filtradas.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +472,1249 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>204151170</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>205</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SOLIC. BAIXA GRAVAME</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cliente solicita baixa do gravame Chassi: 9BWEC05W26P049801 Placa: DQE8I30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>204151170_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>204151170</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>625</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3658472829012020</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>204151170_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>204169200</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>625</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3654850529012020</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>204169200_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>204169200</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INFO. P/ TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cliente autoriza informação para esposa HELENA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>204169200_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>204169200</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>827</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Esposa de titular HELENA autorizado passar informações do contrato, entrou em contato para verificar se tem algo pendente ou se ocorreu a baixa do gravame do contrato e em seguida desligou</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>204169200_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>204169200</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>829</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>QUEDA DE LIGAÇÃO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ao passar informações do contrato esposa do cliente agradece e desliga</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>204169200_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>204188252</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>625</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3655955129012020</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>204188252_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>204188252</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>827</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cliente entra em contato solicitando informações do contrato</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>204188252_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>204193133</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>625</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3658813129012020</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>204193133_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>204193133</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>712</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CALCULO QUITA€AO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>calculo de quitação 9.305,96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>204193133_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>204193767</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>625</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3658750629012020</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>204193767_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>204193767</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>712</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CALCULO QUITA€AO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>calculo de quitação 19.668,92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>204193767_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>208035825</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>57</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENC. P/ COBRADORA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>encaminhado para cobradora responsavl</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>208035825_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>208035825</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>625</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3656906629012020</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>208035825_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>208043060</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>625</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3656401029012020</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>208043060_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>208043060</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>814</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TERMO DE QUITACAO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cliente solicita termo de quitação no email v3moveisplanejados@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>208043060_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>208043060</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>826</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INFO. P/ TERCEIRO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Titular autoriza passar informações para o seu esposo Luciano</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>208043060_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>208047029</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>625</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3657420629012020</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>208047029_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>208047029</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>827</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cliente no aguardo do banco 48991471648, 75999776644</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>208047029_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>600034577</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>625</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3657555929012020</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>600034577_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>600034577</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>674</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SOL. CONTRATO DIG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>cliente solicita 2 via do contrato no email gutooliveira052@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>600034577_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>600035641</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>625</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3656654829012020</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>600035641_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>600035641</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>827</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cliente no aguardo da resposta do banco jannicolaub@yahoo.com.br whats 17 992479179</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>600035641_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>601010980</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>625</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3659258829012020</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>601010980_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>601010980</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>827</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>terceiro entra em contato pois titular é falecido o mesmo gostaria de solicitar a segunda via do contrato e o calculo de quitação porem somente apos o envio da certidão de obito no email fundosf3quata@icrcobranca.com.br</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>601010980_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>616060479C</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>57</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ENC. P/ COBRADORA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>encaminhado para cobradora responsavel</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>616060479C_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>616060479C</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>625</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3657920029012020</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Juliana dos Santos Claudino</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>616060479C_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>616116247</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>625</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3655459629012020</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>616116247_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>616116247</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>625</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nº PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3655613529012020</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>616116247_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>616116247</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>827</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cliente entra em contato para solicitar informações e contrato esta baixado</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>616116247_2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>616116247</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SITUAÇÃO DO CONTRATO</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cliente solicita um documento para comprovação da baixa do gravame vai criar um e-mail e nos retornar</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MARCELA BARBOSA DE LIMA</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>10454</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>616116247_2026-01-29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
